--- a/the-difference-engine.xlsx
+++ b/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>unificar uppertitle</t>
+  </si>
+  <si>
+    <t>VERIFICAR RESPONSIVE ALL</t>
+  </si>
+  <si>
+    <t>LUCIO JS ACCORDION en codigo ("todo highlighter")</t>
+  </si>
+  <si>
+    <t>LUCIO JS TAB en codigo ("todo highlighter")</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,6 +432,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I36"/>
+  <dimension ref="A3:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -718,14 +739,14 @@
     <col min="2" max="2" width="63.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -737,19 +758,13 @@
       </c>
       <c r="D3" s="22"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -764,11 +779,8 @@
         <v>2</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -778,11 +790,8 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -792,11 +801,8 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
@@ -809,9 +815,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>46</v>
       </c>
@@ -824,12 +829,8 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>47</v>
       </c>
@@ -842,9 +843,8 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>50</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>51</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>52</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -932,7 +932,9 @@
         <v>9</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
     </row>
@@ -947,7 +949,9 @@
         <v>9</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
     </row>
@@ -1077,48 +1081,82 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="C30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="23" t="s">
         <v>32</v>
       </c>
+      <c r="C31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/the-difference-engine.xlsx
+++ b/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>LUCIO JS TAB en codigo ("todo highlighter")</t>
+  </si>
+  <si>
+    <t>img a SVG</t>
+  </si>
+  <si>
+    <t>SEARCH ("todo highlighter")</t>
   </si>
 </sst>
 </file>
@@ -431,19 +437,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G37"/>
+  <dimension ref="A3:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -753,10 +759,10 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -788,7 +794,9 @@
         <v>9</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1"/>
@@ -949,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="1"/>
@@ -1108,7 +1116,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -1117,7 +1125,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -1143,7 +1151,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="2"/>
@@ -1155,8 +1163,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/the-difference-engine.xlsx
+++ b/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -131,9 +131,6 @@
     <t xml:space="preserve">    /templates/news-and-events-single.html</t>
   </si>
   <si>
-    <t>png a jpg y tamaños</t>
-  </si>
-  <si>
     <t xml:space="preserve">     /templates/projects/supercharger/who-should-apply.html</t>
   </si>
   <si>
@@ -227,10 +224,16 @@
     <t>LUCIO JS TAB en codigo ("todo highlighter")</t>
   </si>
   <si>
-    <t>img a SVG</t>
-  </si>
-  <si>
-    <t>SEARCH ("todo highlighter")</t>
+    <t>SEARCH ("todo highlighter") / Responsive &lt; 1050</t>
+  </si>
+  <si>
+    <t>Optimizar H en responsive</t>
+  </si>
+  <si>
+    <t>png a jpg y tamaños menos a 2000px</t>
+  </si>
+  <si>
+    <t>agregar SVG si estan disponibles</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G38"/>
+  <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -754,7 +757,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -794,8 +797,8 @@
         <v>9</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="25" t="s">
-        <v>68</v>
+      <c r="E6" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -812,7 +815,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -826,7 +829,7 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
@@ -840,7 +843,7 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>11</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>17</v>
@@ -871,7 +874,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>15</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>22</v>
@@ -931,44 +934,44 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="25" t="s">
-        <v>65</v>
+      <c r="E16" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="25" t="s">
-        <v>66</v>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>9</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>19</v>
@@ -995,10 +998,10 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>9</v>
@@ -1010,10 +1013,10 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>9</v>
@@ -1025,7 +1028,7 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>20</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>34</v>
@@ -1050,14 +1053,14 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
@@ -1084,13 +1087,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>28</v>
+      <c r="A27" s="23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>29</v>
+      <c r="A28" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>26</v>
@@ -1098,8 +1101,8 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>42</v>
+      <c r="A29" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1107,8 +1110,8 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
+      <c r="A30" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>24</v>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>25</v>
@@ -1125,8 +1128,8 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>31</v>
+      <c r="A32" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
@@ -1135,14 +1138,14 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="1" t="s">
@@ -1151,25 +1154,30 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>63</v>
+      <c r="A35" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>62</v>
+      <c r="A36" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>64</v>
+      <c r="A37" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
